--- a/xlsx/太平洋时区_intext.xlsx
+++ b/xlsx/太平洋时区_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>太平洋时区</t>
   </si>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>標準時間</t>
+    <t>标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>洛杉磯都會區</t>
+    <t>洛杉矶都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉斯加時區</t>
+    <t>阿拉斯加时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%EF%BC%8D%E9%98%BF%E7%95%99%E7%94%B3%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>夏威夷－阿留申時區</t>
+    <t>夏威夷－阿留申时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>香港時間</t>
+    <t>香港时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>國家標準時間</t>
+    <t>国家标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%97%B6%E5%8C%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%9B%A7%E7%88%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬盧爾縣</t>
+    <t>马卢尔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%8199%E8%99%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>卑詩省99號公路</t>
+    <t>卑诗省99号公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%BF%B0%E5%A0%A1_(%E5%8D%91%E8%A9%A9%E7%9C%81)</t>
   </si>
   <si>
-    <t>聖約翰堡 (卑詩省)</t>
+    <t>圣约翰堡 (卑诗省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A3%AE%E5%85%8B%E9%87%8C%E5%85%8B</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>下加利福尼亞州</t>
+    <t>下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%BB%B4%E5%88%A9%E4%BA%9A%E5%B8%8C%E8%B5%AB%E5%A4%9A%E7%BE%A4%E5%B2%9B</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%88%A9%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>科利馬州</t>
+    <t>科利马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-10</t>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國時區</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2688,7 @@
         <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
